--- a/NARCOS TP5.xlsx
+++ b/NARCOS TP5.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\Narcos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{40A995F3-75B9-42FA-A853-EB99B5B4B566}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19080" windowHeight="6870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil5" sheetId="5" r:id="rId2"/>
-    <sheet name="tp4" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="6" r:id="rId3"/>
+    <sheet name="tp4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>Semaine</t>
   </si>
@@ -334,17 +341,80 @@
   </si>
   <si>
     <t>13 jours</t>
+  </si>
+  <si>
+    <t>bobine A</t>
+  </si>
+  <si>
+    <t>-&gt; AxeB (composant)</t>
+  </si>
+  <si>
+    <t>18 jours</t>
+  </si>
+  <si>
+    <t>5 jour</t>
+  </si>
+  <si>
+    <t>10 jour</t>
+  </si>
+  <si>
+    <t>4x aimants E50</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Colonne3</t>
+  </si>
+  <si>
+    <t>Colonne4</t>
+  </si>
+  <si>
+    <t>Colonne5</t>
+  </si>
+  <si>
+    <t>Colonne6</t>
+  </si>
+  <si>
+    <t>Colonne7</t>
+  </si>
+  <si>
+    <t>Colonne8</t>
+  </si>
+  <si>
+    <t>Colonne9</t>
+  </si>
+  <si>
+    <t>Colonne10</t>
+  </si>
+  <si>
+    <t>20 jours</t>
+  </si>
+  <si>
+    <t>3 semaines</t>
+  </si>
+  <si>
+    <t>Etape final</t>
+  </si>
+  <si>
+    <t>Etape Intermetidaire</t>
+  </si>
+  <si>
+    <t>Composants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,16 +453,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -877,13 +969,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,25 +1155,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -953,24 +1187,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -997,20 +1222,82 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1037,7 +1324,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1046,6 +1333,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1060,6 +1348,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1102,8 +1391,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1119,8 +1413,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1136,8 +1435,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1153,8 +1457,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1170,8 +1479,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1187,8 +1501,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1204,8 +1523,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1221,8 +1545,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1238,8 +1567,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1255,8 +1589,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1272,8 +1611,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1289,8 +1633,13 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-FAA7-4A39-B17F-73DA3A722ED4}"/>
@@ -1322,12 +1671,18 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1435,7 +1790,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FAA7-4A39-B17F-73DA3A722ED4}"/>
             </c:ext>
@@ -1483,9 +1839,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1497,9 +1861,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1511,9 +1883,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1525,9 +1905,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1539,9 +1927,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1553,9 +1949,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1567,9 +1971,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1581,9 +1993,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1595,9 +2015,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1609,9 +2037,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1623,9 +2059,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1637,9 +2081,17 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D750-4B69-8D5F-E79E4F55E566}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1667,12 +2119,18 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1780,16 +2238,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E29-46EF-8667-CB27F6D95A0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="99127680"/>
         <c:axId val="99129216"/>
       </c:lineChart>
@@ -1798,6 +2262,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1826,6 +2291,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1850,7 +2316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="99129216"/>
@@ -1858,6 +2324,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="99129216"/>
@@ -1866,6 +2333,7 @@
           <c:max val="2100000"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1894,6 +2362,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1918,7 +2387,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="99127680"/>
@@ -1945,6 +2414,7 @@
           <c:h val="3.46256489663554E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1968,19 +2438,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2007,7 +2478,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2035,7 +2506,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Ellipse 1"/>
+        <xdr:cNvPr id="2" name="Ellipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2090,7 +2567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ellipse 2"/>
+        <xdr:cNvPr id="3" name="Ellipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2150,7 +2633,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Ellipse 3"/>
+        <xdr:cNvPr id="4" name="Ellipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2212,7 +2701,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Ellipse 4"/>
+        <xdr:cNvPr id="5" name="Ellipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2272,7 +2767,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Ellipse 5"/>
+        <xdr:cNvPr id="6" name="Ellipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2327,7 +2828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Ellipse 6"/>
+        <xdr:cNvPr id="7" name="Ellipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2408,7 +2915,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Ellipse 7"/>
+        <xdr:cNvPr id="8" name="Ellipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2463,7 +2976,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Ellipse 8"/>
+        <xdr:cNvPr id="9" name="Ellipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2506,25 +3025,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>53974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Ellipse 9"/>
+        <xdr:cNvPr id="10" name="Ellipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="4657725"/>
-          <a:ext cx="762000" cy="514349"/>
+          <a:off x="6619875" y="4435475"/>
+          <a:ext cx="762000" cy="495299"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2578,7 +3103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Ellipse 10"/>
+        <xdr:cNvPr id="11" name="Ellipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2633,7 +3164,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12"/>
+        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2680,7 +3217,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Connecteur droit avec flèche 16"/>
+        <xdr:cNvPr id="17" name="Connecteur droit avec flèche 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="6"/>
           <a:endCxn id="7" idx="1"/>
@@ -2730,7 +3273,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Connecteur droit avec flèche 18"/>
+        <xdr:cNvPr id="19" name="Connecteur droit avec flèche 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="7"/>
@@ -2780,7 +3329,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Connecteur droit avec flèche 20"/>
+        <xdr:cNvPr id="21" name="Connecteur droit avec flèche 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="5"/>
           <a:endCxn id="6" idx="0"/>
@@ -2830,7 +3385,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22"/>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="5" idx="0"/>
@@ -2880,7 +3441,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Connecteur droit avec flèche 24"/>
+        <xdr:cNvPr id="25" name="Connecteur droit avec flèche 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="6"/>
           <a:endCxn id="9" idx="0"/>
@@ -2920,17 +3487,23 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>212258</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>162799</xdr:rowOff>
+      <xdr:rowOff>159239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>396875</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26"/>
+        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="5"/>
           <a:endCxn id="10" idx="0"/>
@@ -2938,8 +3511,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5593883" y="4296649"/>
-          <a:ext cx="197317" cy="361076"/>
+          <a:off x="6816258" y="4115289"/>
+          <a:ext cx="184617" cy="320186"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2980,7 +3553,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Connecteur droit avec flèche 28"/>
+        <xdr:cNvPr id="29" name="Connecteur droit avec flèche 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="11" idx="0"/>
@@ -3030,7 +3609,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Connecteur droit avec flèche 30"/>
+        <xdr:cNvPr id="31" name="Connecteur droit avec flèche 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="2"/>
           <a:endCxn id="8" idx="0"/>
@@ -3065,6 +3650,114 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>120650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>107950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3088,7 +3781,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A26CEAA8-533C-4CA1-B284-114282832E1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,6 +3800,51 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75227B01-1051-4718-97A8-E5B26A0283A5}" name="Tableau1" displayName="Tableau1" ref="C2:L14" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C2:L14" xr:uid="{2592884A-2BA0-4B6B-B2BE-803EBB317025}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3EC9EE34-9265-4284-A2A0-4325ECE8A691}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{972E91AE-FA17-4D79-8D07-4F880C8AD27E}" name="Colonne2"/>
+    <tableColumn id="3" xr3:uid="{3B96AF08-7A8D-448F-878F-DAA80C61CF1F}" name="Colonne3"/>
+    <tableColumn id="4" xr3:uid="{A09625C7-D8C8-4EBD-91CE-DDC22CC4937A}" name="Colonne4"/>
+    <tableColumn id="5" xr3:uid="{1E822E43-2C87-4399-B617-2F46B747CB2F}" name="Colonne5"/>
+    <tableColumn id="6" xr3:uid="{C58C2718-FCAF-4D62-A952-0A3332984B36}" name="Colonne6"/>
+    <tableColumn id="7" xr3:uid="{D2A74533-FCB2-4855-A44D-D401F2B9240F}" name="Colonne7"/>
+    <tableColumn id="8" xr3:uid="{B8E35D9B-7EA3-4906-B992-696427A308CE}" name="Colonne8"/>
+    <tableColumn id="9" xr3:uid="{2F60718D-F842-47BB-810C-D24F6266517A}" name="Colonne9"/>
+    <tableColumn id="10" xr3:uid="{47F96171-F4C9-4147-BB78-763A8FF11388}" name="Colonne10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F5CBFFC-7E6A-498B-8507-70ECCE411EC5}" name="Tableau9" displayName="Tableau9" ref="B2:E13" totalsRowShown="0">
+  <autoFilter ref="B2:E13" xr:uid="{905BDBFD-E5A2-4029-ABD5-21BAFBF2A601}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C1071741-5190-48E3-A634-E12D829D0132}" name="Etape final"/>
+    <tableColumn id="2" xr3:uid="{93CE7917-7AC7-41F4-800E-908E2B3D3C02}" name="Etape Intermetidaire"/>
+    <tableColumn id="3" xr3:uid="{8499A180-188F-4551-9367-3C1C5C94A22C}" name="Composants"/>
+    <tableColumn id="4" xr3:uid="{79AB616B-D5E3-4B25-AF2B-6A73D9554F46}" name="Délais" dataCellStyle="Sortie"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{98B28B03-DE9A-48FE-8F4D-01E2D89111A6}" name="Tableau11" displayName="Tableau11" ref="F2:I13" totalsRowShown="0">
+  <autoFilter ref="F2:I13" xr:uid="{1002630F-4AAE-437D-9CC6-8EB130EAEDD4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{70A86A05-465D-4656-AFDF-39EDA29D8DA8}" name="Etape final"/>
+    <tableColumn id="2" xr3:uid="{94E64452-F4BA-4998-A512-48E55E658265}" name="Etape Intermetidaire"/>
+    <tableColumn id="3" xr3:uid="{3E98C06C-0FC1-42EC-870F-601B98641958}" name="Composants"/>
+    <tableColumn id="4" xr3:uid="{9ACDFF81-A224-4FF8-8353-3B6EBCFDC899}" name="Délais" dataCellStyle="Sortie"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3152,7 +3890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3184,9 +3922,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3218,6 +3974,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3393,35 +4167,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" customWidth="1"/>
+    <col min="18" max="18" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:22">
-      <c r="L1" s="55" t="s">
+    <row r="1" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L1" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="57"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="76"/>
       <c r="V1">
         <v>17828</v>
       </c>
     </row>
-    <row r="2" spans="12:22" ht="30" customHeight="1">
+    <row r="2" spans="12:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L2" s="5"/>
       <c r="M2" s="54" t="s">
         <v>25</v>
@@ -3432,7 +4210,7 @@
       <c r="O2" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="55" t="s">
         <v>55</v>
       </c>
       <c r="S2" t="s">
@@ -3448,7 +4226,7 @@
         <v>13474</v>
       </c>
     </row>
-    <row r="3" spans="12:22">
+    <row r="3" spans="12:22" x14ac:dyDescent="0.35">
       <c r="L3" s="5" t="s">
         <v>31</v>
       </c>
@@ -3462,7 +4240,7 @@
         <f>P3-(N3-M3)</f>
         <v>10581</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="56">
         <v>8000</v>
       </c>
       <c r="S3" t="s">
@@ -3478,36 +4256,36 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="12:22" ht="15.75" thickBot="1">
+    <row r="4" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="57">
         <v>103643</v>
       </c>
-      <c r="N4" s="61">
+      <c r="N4" s="58">
         <f>+M4-(O4-P4)</f>
         <v>96043</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="58">
         <f>+P3</f>
         <v>8000</v>
       </c>
-      <c r="P4" s="62">
+      <c r="P4" s="59">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="12:22" ht="15.75" thickBot="1"/>
-    <row r="6" spans="12:22">
-      <c r="L6" s="55" t="s">
+    <row r="5" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L6" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
-    </row>
-    <row r="7" spans="12:22" ht="30">
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+    </row>
+    <row r="7" spans="12:22" ht="29" x14ac:dyDescent="0.35">
       <c r="L7" s="5"/>
       <c r="M7" s="54" t="s">
         <v>25</v>
@@ -3518,11 +4296,11 @@
       <c r="O7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="12:22">
+    <row r="8" spans="12:22" x14ac:dyDescent="0.35">
       <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
@@ -3538,41 +4316,41 @@
         <f>P8-(N8-M8)</f>
         <v>7245</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="56">
         <v>5470</v>
       </c>
     </row>
-    <row r="9" spans="12:22" ht="15.75" thickBot="1">
+    <row r="9" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="57">
         <f>+T3-M14-M4</f>
         <v>70943</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="58">
         <f>+M9-(O9-P9)</f>
         <v>65661</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="58">
         <f>+P8</f>
         <v>5470</v>
       </c>
-      <c r="P9" s="62">
+      <c r="P9" s="59">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="12:22" ht="15.75" thickBot="1"/>
-    <row r="11" spans="12:22">
-      <c r="L11" s="55" t="s">
+    <row r="10" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L11" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="12:22" ht="30">
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="12:22" ht="29" x14ac:dyDescent="0.35">
       <c r="L12" s="5"/>
       <c r="M12" s="54" t="s">
         <v>25</v>
@@ -3583,11 +4361,11 @@
       <c r="O12" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="12:22">
+    <row r="13" spans="12:22" x14ac:dyDescent="0.35">
       <c r="L13" s="5" t="s">
         <v>31</v>
       </c>
@@ -3600,51 +4378,51 @@
       <c r="O13" s="34">
         <v>2</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="56">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="12:22" ht="15.75" thickBot="1">
+    <row r="14" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="57">
         <v>300</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="58">
         <f>+M14-(O14-P14)</f>
         <v>296</v>
       </c>
-      <c r="O14" s="61">
+      <c r="O14" s="58">
         <f>+P13</f>
         <v>4</v>
       </c>
-      <c r="P14" s="62">
+      <c r="P14" s="59">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="12:22" ht="15.75" thickBot="1"/>
-    <row r="17" spans="1:13">
-      <c r="A17" s="55" t="s">
+    <row r="16" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="4">
@@ -3671,20 +4449,20 @@
       <c r="J18" s="6">
         <v>8</v>
       </c>
-      <c r="L18" s="64">
+      <c r="L18" s="61">
         <f>+M3/O4*F21</f>
         <v>70136.25</v>
       </c>
-      <c r="M18" s="64">
+      <c r="M18" s="61">
         <f>+M4/P4*J21</f>
         <v>64776.875000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="33">
         <v>4500</v>
       </c>
@@ -3710,24 +4488,24 @@
         <f t="shared" ref="I19:J19" si="0">+H19</f>
         <v>5534.4687500000018</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="56">
         <f t="shared" si="0"/>
         <v>5534.4687500000018</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="61">
         <f>+$N$3/$M$3*L18</f>
         <v>68523.125</v>
       </c>
-      <c r="M19" s="64">
+      <c r="M19" s="61">
         <f>+$N$4/$M$4*M18</f>
         <v>60026.875000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="33">
         <f>+M3*0.7*250/400/4</f>
         <v>12273.843749999998</v>
@@ -3755,21 +4533,21 @@
         <f>+H20+1008</f>
         <v>11264</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="56">
         <f>+I20-1201</f>
         <v>10063</v>
       </c>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64">
+      <c r="L20" s="61"/>
+      <c r="M20" s="61">
         <f>+M18-J20-I20-H20-G20</f>
         <v>22137.875000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="62">
         <f>+$O$3/$O$4*F21</f>
         <v>6613.125</v>
       </c>
@@ -3801,18 +4579,18 @@
         <f t="shared" si="2"/>
         <v>840.75</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="56">
         <v>250</v>
       </c>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="33">
         <f>+L19/4</f>
         <v>17130.78125</v>
@@ -3841,78 +4619,78 @@
         <f>+H22</f>
         <v>15006.718750000002</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="56">
         <f>+I22</f>
         <v>15006.718750000002</v>
       </c>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="60">
+      <c r="B23" s="63"/>
+      <c r="C23" s="57">
         <f>+E22</f>
         <v>17130.78125</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="57">
         <f t="shared" ref="D23:H23" si="3">+F22</f>
         <v>17130.78125</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="57">
         <f t="shared" si="3"/>
         <v>15006.718750000002</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="57">
         <f t="shared" si="3"/>
         <v>15006.718750000002</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="57">
         <f t="shared" si="3"/>
         <v>15006.718750000002</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="57">
         <f t="shared" si="3"/>
         <v>15006.718750000002</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="57">
         <f>+H23</f>
         <v>15006.718750000002</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="59">
         <f>+I23</f>
         <v>15006.718750000002</v>
       </c>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="55" t="s">
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>1</v>
       </c>
@@ -3937,20 +4715,20 @@
       <c r="J26" s="6">
         <v>8</v>
       </c>
-      <c r="L26" s="64">
+      <c r="L26" s="61">
         <f>+M3/O4*F29</f>
         <v>28054.5</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="61">
         <f>+M4/P4*J29</f>
         <v>25910.75</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="33">
         <v>1800</v>
       </c>
@@ -3976,24 +4754,24 @@
         <f t="shared" ref="I27:J27" si="4">+H27</f>
         <v>1977.4375</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="56">
         <f t="shared" si="4"/>
         <v>1977.4375</v>
       </c>
-      <c r="L27" s="64">
+      <c r="L27" s="61">
         <f>+$N$3/$M$3*L26</f>
         <v>27409.25</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="61">
         <f>+$N$4/$M$4*M26</f>
         <v>24010.75</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="33">
         <f>+M3*0.7*100/400/4</f>
         <v>4909.5374999999995</v>
@@ -4016,20 +4794,20 @@
       <c r="I28" s="33">
         <v>4300</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="56">
         <v>4323</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64">
+      <c r="L28" s="61"/>
+      <c r="M28" s="61">
         <f>+M26-J28-I28-H28-G28</f>
         <v>7909.75</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="65">
+      <c r="B29" s="62">
         <f>+$O$3/$O$4*F29</f>
         <v>2645.25</v>
       </c>
@@ -4061,17 +4839,17 @@
         <f t="shared" ref="I29" si="9">+I30-I27-I28+H29</f>
         <v>397.75</v>
       </c>
-      <c r="J29" s="59">
+      <c r="J29" s="56">
         <v>100</v>
       </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="65"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="33">
         <f>+L27/4</f>
         <v>6852.3125</v>
@@ -4100,78 +4878,78 @@
         <f>+H30</f>
         <v>6002.6875</v>
       </c>
-      <c r="J30" s="59">
+      <c r="J30" s="56">
         <f>+I30</f>
         <v>6002.6875</v>
       </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="60">
+      <c r="B31" s="63"/>
+      <c r="C31" s="57">
         <f>+E30</f>
         <v>6852.3125</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="57">
         <f t="shared" ref="D31" si="10">+F30</f>
         <v>6852.3125</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="57">
         <f t="shared" ref="E31" si="11">+G30</f>
         <v>6002.6875</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="57">
         <f t="shared" ref="F31" si="12">+H30</f>
         <v>6002.6875</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="57">
         <f t="shared" ref="G31" si="13">+I30</f>
         <v>6002.6875</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="57">
         <f t="shared" ref="H31" si="14">+J30</f>
         <v>6002.6875</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="57">
         <f>+H31</f>
         <v>6002.6875</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="59">
         <f>+I31</f>
         <v>6002.6875</v>
       </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="55" t="s">
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="65"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="4">
         <v>1</v>
       </c>
@@ -4196,20 +4974,20 @@
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="L34" s="64">
+      <c r="L34" s="61">
         <f>+M3/O4*F37</f>
         <v>14027.25</v>
       </c>
-      <c r="M34" s="64">
+      <c r="M34" s="61">
         <f>+M4/P4*J37</f>
         <v>12955.375</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="65"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="33">
         <v>500</v>
       </c>
@@ -4235,24 +5013,24 @@
         <f t="shared" ref="I35:J35" si="15">+H35</f>
         <v>1113.84375</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="56">
         <f t="shared" si="15"/>
         <v>1113.84375</v>
       </c>
-      <c r="L35" s="64">
+      <c r="L35" s="61">
         <f>+$N$3/$M$3*L34</f>
         <v>13704.625</v>
       </c>
-      <c r="M35" s="64">
+      <c r="M35" s="61">
         <f>+$N$4/$M$4*M34</f>
         <v>12005.375</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="33">
         <f>+M3*0.7*60/400/4</f>
         <v>2945.7224999999994</v>
@@ -4275,19 +5053,19 @@
       <c r="I36" s="33">
         <v>2000</v>
       </c>
-      <c r="J36" s="59">
+      <c r="J36" s="56">
         <v>2000</v>
       </c>
-      <c r="M36" s="64">
+      <c r="M36" s="61">
         <f>+M34-J36-I36-H36-G36</f>
         <v>4455.375</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="65">
+      <c r="B37" s="62">
         <f>+$O$3/$O$4*F37</f>
         <v>1322.625</v>
       </c>
@@ -4319,15 +5097,15 @@
         <f t="shared" ref="I37" si="20">+I38-I35-I36+H37</f>
         <v>162.5</v>
       </c>
-      <c r="J37" s="59">
+      <c r="J37" s="56">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="33">
         <f>+L35/4</f>
         <v>3426.15625</v>
@@ -4356,45 +5134,45 @@
         <f>+H38</f>
         <v>3001.34375</v>
       </c>
-      <c r="J38" s="59">
+      <c r="J38" s="56">
         <f>+I38</f>
         <v>3001.34375</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="60">
+      <c r="B39" s="63"/>
+      <c r="C39" s="57">
         <f>+E38</f>
         <v>3426.15625</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="57">
         <f t="shared" ref="D39" si="21">+F38</f>
         <v>3426.15625</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="57">
         <f t="shared" ref="E39" si="22">+G38</f>
         <v>3001.34375</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="57">
         <f t="shared" ref="F39" si="23">+H38</f>
         <v>3001.34375</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="57">
         <f t="shared" ref="G39" si="24">+I38</f>
         <v>3001.34375</v>
       </c>
-      <c r="H39" s="60">
+      <c r="H39" s="57">
         <f t="shared" ref="H39" si="25">+J38</f>
         <v>3001.34375</v>
       </c>
-      <c r="I39" s="60">
+      <c r="I39" s="57">
         <f>+H39</f>
         <v>3001.34375</v>
       </c>
-      <c r="J39" s="62">
+      <c r="J39" s="59">
         <f>+I39</f>
         <v>3001.34375</v>
       </c>
@@ -4413,288 +5191,397 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" customWidth="1"/>
+    <col min="14" max="14" width="41.1796875" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="15.75" thickBot="1">
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75" t="s">
+    <row r="2" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="3:21" ht="15.75" thickBot="1">
-      <c r="C3" s="75" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="66">
+        <v>8</v>
+      </c>
+      <c r="P3" s="67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="69">
-        <v>8</v>
-      </c>
-      <c r="P3" s="70" t="s">
+      <c r="H4" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="70">
+        <v>10</v>
+      </c>
+      <c r="P4" s="71" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="3:21" ht="15.75" thickBot="1">
-      <c r="C4" t="s">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>104</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="73">
-        <v>10</v>
-      </c>
-      <c r="P4" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="3:21" ht="15.75" thickBot="1">
-      <c r="D5" s="76" t="s">
-        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>99</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O5" s="70">
         <v>3</v>
       </c>
-      <c r="P5" s="74" t="s">
+      <c r="P5" s="71" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="15.75" thickBot="1">
-      <c r="E6" t="s">
+    <row r="6" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="70">
+        <v>3</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="70">
+        <v>2</v>
+      </c>
+      <c r="P7" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="73">
-        <v>3</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21" ht="15.75" thickBot="1">
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="73">
-        <v>2</v>
-      </c>
-      <c r="P7" s="74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="3:21" ht="15.75" thickBot="1">
-      <c r="E8" t="s">
-        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="70">
         <v>8</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="3:21" ht="15.75" thickBot="1">
+    <row r="9" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="70">
+        <v>9</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>100</v>
       </c>
-      <c r="M9" s="71" t="s">
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="70">
+        <v>1</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="70">
+        <v>1</v>
+      </c>
+      <c r="P11" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="73">
-        <v>9</v>
-      </c>
-      <c r="P9" s="74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21" ht="15.75" thickBot="1">
-      <c r="D10" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="70">
+        <v>1</v>
+      </c>
+      <c r="P12" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="70">
+        <v>5</v>
+      </c>
+      <c r="P13" s="71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="70">
+        <v>3</v>
+      </c>
+      <c r="P14" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="73">
-        <v>1</v>
-      </c>
-      <c r="P10" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" ht="15.75" thickBot="1">
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="73">
-        <v>1</v>
-      </c>
-      <c r="P11" s="74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" ht="15.75" thickBot="1">
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="73">
-        <v>1</v>
-      </c>
-      <c r="P12" s="74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" ht="15.75" thickBot="1">
-      <c r="D13" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="71" t="s">
+    </row>
+    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M15" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="70">
+        <v>2</v>
+      </c>
+      <c r="P15" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="73">
-        <v>5</v>
-      </c>
-      <c r="P13" s="74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="3:21" ht="15.75" thickBot="1">
-      <c r="M14" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="73">
-        <v>3</v>
-      </c>
-      <c r="P14" s="74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="3:21" ht="15.75" thickBot="1">
-      <c r="M15" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" s="73">
-        <v>2</v>
-      </c>
-      <c r="P15" s="74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14">
-      <c r="N27" s="75" t="s">
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N27" s="72" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4703,30 +5590,317 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="2049" r:id="rId3"/>
-    <oleObject progId="Visio.Drawing.11" shapeId="2050" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>317500</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>120650</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="2050" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>368300</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="2050" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E66503-9C31-485B-A220-02569EE824BC}">
+  <dimension ref="B1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C4" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="86"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="G12" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="83"/>
+      <c r="I12" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
     <col min="2" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="38.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="38.1796875" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="51" customFormat="1" ht="45">
+    <row r="1" spans="1:16" s="51" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
@@ -4759,7 +5933,7 @@
       </c>
       <c r="K1" s="52"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -4774,7 +5948,7 @@
         <v>153216</v>
       </c>
       <c r="E2" s="33">
-        <f>D2*15</f>
+        <f t="shared" ref="E2:E13" si="0">D2*15</f>
         <v>2298240</v>
       </c>
       <c r="F2" s="33">
@@ -4790,7 +5964,7 @@
         <v>7.7461269365317345E-2</v>
       </c>
       <c r="I2" s="33">
-        <f>+$I$14/12</f>
+        <f t="shared" ref="I2:I13" si="1">+$I$14/12</f>
         <v>645833.33333333337</v>
       </c>
       <c r="J2" s="34">
@@ -4802,7 +5976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -4813,19 +5987,19 @@
         <v>155000</v>
       </c>
       <c r="D3" s="33">
-        <f>D2+B3</f>
+        <f t="shared" ref="D3:D13" si="2">D2+B3</f>
         <v>305306</v>
       </c>
       <c r="E3" s="33">
-        <f>D3*15</f>
+        <f t="shared" si="0"/>
         <v>4579590</v>
       </c>
       <c r="F3" s="33">
-        <f>F2+C3</f>
+        <f t="shared" ref="F3:F13" si="3">F2+C3</f>
         <v>310000</v>
       </c>
       <c r="G3" s="33">
-        <f>F3-D3</f>
+        <f t="shared" ref="G3:G13" si="4">F3-D3</f>
         <v>4694</v>
       </c>
       <c r="H3" s="35">
@@ -4833,7 +6007,7 @@
         <v>7.7461269365317345E-2</v>
       </c>
       <c r="I3" s="33">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J3" s="34">
@@ -4842,7 +6016,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -4853,19 +6027,19 @@
         <v>155000</v>
       </c>
       <c r="D4" s="33">
-        <f>D3+B4</f>
+        <f t="shared" si="2"/>
         <v>456518</v>
       </c>
       <c r="E4" s="33">
-        <f>D4*15</f>
+        <f t="shared" si="0"/>
         <v>6847770</v>
       </c>
       <c r="F4" s="33">
-        <f>F3+C4</f>
+        <f t="shared" si="3"/>
         <v>465000</v>
       </c>
       <c r="G4" s="33">
-        <f>F4-D4</f>
+        <f t="shared" si="4"/>
         <v>8482</v>
       </c>
       <c r="H4" s="35">
@@ -4873,7 +6047,7 @@
         <v>7.7461269365317345E-2</v>
       </c>
       <c r="I4" s="33">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J4" s="34">
@@ -4882,7 +6056,7 @@
       </c>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -4893,19 +6067,19 @@
         <v>155000</v>
       </c>
       <c r="D5" s="33">
-        <f>D4+B5</f>
+        <f t="shared" si="2"/>
         <v>611360</v>
       </c>
       <c r="E5" s="33">
-        <f>D5*15</f>
+        <f t="shared" si="0"/>
         <v>9170400</v>
       </c>
       <c r="F5" s="33">
-        <f>F4+C5</f>
+        <f t="shared" si="3"/>
         <v>620000</v>
       </c>
       <c r="G5" s="33">
-        <f>F5-D5</f>
+        <f t="shared" si="4"/>
         <v>8640</v>
       </c>
       <c r="H5" s="35">
@@ -4913,7 +6087,7 @@
         <v>7.7461269365317345E-2</v>
       </c>
       <c r="I5" s="33">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J5" s="34">
@@ -4922,7 +6096,7 @@
       </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -4933,19 +6107,19 @@
         <v>185000</v>
       </c>
       <c r="D6" s="33">
-        <f>D5+B6</f>
+        <f t="shared" si="2"/>
         <v>776253</v>
       </c>
       <c r="E6" s="33">
-        <f>D6*15</f>
+        <f t="shared" si="0"/>
         <v>11643795</v>
       </c>
       <c r="F6" s="33">
-        <f>F5+C6</f>
+        <f t="shared" si="3"/>
         <v>805000</v>
       </c>
       <c r="G6" s="33">
-        <f>F6-D6</f>
+        <f t="shared" si="4"/>
         <v>28747</v>
       </c>
       <c r="H6" s="35">
@@ -4953,7 +6127,7 @@
         <v>9.2453773113443272E-2</v>
       </c>
       <c r="I6" s="33">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J6" s="34">
@@ -4962,7 +6136,7 @@
       </c>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>33</v>
       </c>
@@ -4973,19 +6147,19 @@
         <v>185000</v>
       </c>
       <c r="D7" s="49">
-        <f>D6+B7</f>
+        <f t="shared" si="2"/>
         <v>958855</v>
       </c>
       <c r="E7" s="49">
-        <f>D7*15</f>
+        <f t="shared" si="0"/>
         <v>14382825</v>
       </c>
       <c r="F7" s="49">
-        <f>F6+C7</f>
+        <f t="shared" si="3"/>
         <v>990000</v>
       </c>
       <c r="G7" s="49">
-        <f>F7-D7</f>
+        <f t="shared" si="4"/>
         <v>31145</v>
       </c>
       <c r="H7" s="50">
@@ -4993,7 +6167,7 @@
         <v>9.2453773113443272E-2</v>
       </c>
       <c r="I7" s="49">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J7" s="48">
@@ -5002,7 +6176,7 @@
       </c>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
         <v>32</v>
       </c>
@@ -5013,19 +6187,19 @@
         <v>185000</v>
       </c>
       <c r="D8" s="42">
-        <f>D7+B8</f>
+        <f t="shared" si="2"/>
         <v>1157172</v>
       </c>
       <c r="E8" s="42">
-        <f>D8*15</f>
+        <f t="shared" si="0"/>
         <v>17357580</v>
       </c>
       <c r="F8" s="42">
-        <f>F7+C8</f>
+        <f t="shared" si="3"/>
         <v>1175000</v>
       </c>
       <c r="G8" s="42">
-        <f>F8-D8</f>
+        <f t="shared" si="4"/>
         <v>17828</v>
       </c>
       <c r="H8" s="43">
@@ -5033,7 +6207,7 @@
         <v>9.2453773113443272E-2</v>
       </c>
       <c r="I8" s="42">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J8" s="42">
@@ -5042,7 +6216,7 @@
       </c>
       <c r="K8" s="40"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickTop="1">
+    <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>31</v>
       </c>
@@ -5053,19 +6227,19 @@
         <v>185000</v>
       </c>
       <c r="D9" s="37">
-        <f>D8+B9</f>
+        <f t="shared" si="2"/>
         <v>1346526</v>
       </c>
       <c r="E9" s="37">
-        <f>D9*15</f>
+        <f t="shared" si="0"/>
         <v>20197890</v>
       </c>
       <c r="F9" s="37">
-        <f>F8+C9</f>
+        <f t="shared" si="3"/>
         <v>1360000</v>
       </c>
       <c r="G9" s="37">
-        <f>F9-D9</f>
+        <f t="shared" si="4"/>
         <v>13474</v>
       </c>
       <c r="H9" s="38">
@@ -5073,7 +6247,7 @@
         <v>9.2453773113443272E-2</v>
       </c>
       <c r="I9" s="37">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J9" s="45">
@@ -5082,7 +6256,7 @@
       </c>
       <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
         <v>30</v>
       </c>
@@ -5093,19 +6267,19 @@
         <v>162000</v>
       </c>
       <c r="D10" s="42">
-        <f>D9+B10</f>
+        <f t="shared" si="2"/>
         <v>1521412</v>
       </c>
       <c r="E10" s="42">
-        <f>D10*15</f>
+        <f t="shared" si="0"/>
         <v>22821180</v>
       </c>
       <c r="F10" s="42">
-        <f>F9+C10</f>
+        <f t="shared" si="3"/>
         <v>1522000</v>
       </c>
       <c r="G10" s="42">
-        <f>F10-D10</f>
+        <f t="shared" si="4"/>
         <v>588</v>
       </c>
       <c r="H10" s="43">
@@ -5113,7 +6287,7 @@
         <v>8.0959520239880053E-2</v>
       </c>
       <c r="I10" s="42">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J10" s="41">
@@ -5122,7 +6296,7 @@
       </c>
       <c r="K10" s="40"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickTop="1">
+    <row r="11" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>29</v>
       </c>
@@ -5133,19 +6307,19 @@
         <v>162000</v>
       </c>
       <c r="D11" s="37">
-        <f>D10+B11</f>
+        <f t="shared" si="2"/>
         <v>1683226</v>
       </c>
       <c r="E11" s="37">
-        <f>D11*15</f>
+        <f t="shared" si="0"/>
         <v>25248390</v>
       </c>
       <c r="F11" s="37">
-        <f>F10+C11</f>
+        <f t="shared" si="3"/>
         <v>1684000</v>
       </c>
       <c r="G11" s="37">
-        <f>F11-D11</f>
+        <f t="shared" si="4"/>
         <v>774</v>
       </c>
       <c r="H11" s="38">
@@ -5153,7 +6327,7 @@
         <v>8.0959520239880053E-2</v>
       </c>
       <c r="I11" s="37">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J11" s="36">
@@ -5162,7 +6336,7 @@
       </c>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -5173,19 +6347,19 @@
         <v>162000</v>
       </c>
       <c r="D12" s="33">
-        <f>D11+B12</f>
+        <f t="shared" si="2"/>
         <v>1840118</v>
       </c>
       <c r="E12" s="33">
-        <f>D12*15</f>
+        <f t="shared" si="0"/>
         <v>27601770</v>
       </c>
       <c r="F12" s="33">
-        <f>F11+C12</f>
+        <f t="shared" si="3"/>
         <v>1846000</v>
       </c>
       <c r="G12" s="33">
-        <f>F12-D12</f>
+        <f t="shared" si="4"/>
         <v>5882</v>
       </c>
       <c r="H12" s="35">
@@ -5193,7 +6367,7 @@
         <v>8.0959520239880053E-2</v>
       </c>
       <c r="I12" s="33">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J12" s="34">
@@ -5202,7 +6376,7 @@
       </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -5213,19 +6387,19 @@
         <v>155000</v>
       </c>
       <c r="D13" s="33">
-        <f>D12+B13</f>
+        <f t="shared" si="2"/>
         <v>2000000</v>
       </c>
       <c r="E13" s="33">
-        <f>D13*15</f>
+        <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
       <c r="F13" s="33">
-        <f>F12+C13</f>
+        <f t="shared" si="3"/>
         <v>2001000</v>
       </c>
       <c r="G13" s="33">
-        <f>F13-D13</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="H13" s="35">
@@ -5233,7 +6407,7 @@
         <v>7.7461269365317345E-2</v>
       </c>
       <c r="I13" s="33">
-        <f>+$I$14/12</f>
+        <f t="shared" si="1"/>
         <v>645833.33333333337</v>
       </c>
       <c r="J13" s="34">
@@ -5242,7 +6416,7 @@
       </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -5264,7 +6438,7 @@
       </c>
       <c r="K14" s="30"/>
     </row>
-    <row r="50" spans="13:16">
+    <row r="50" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M50" s="26" t="s">
         <v>25</v>
       </c>
@@ -5274,7 +6448,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="13:16">
+    <row r="51" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M51" s="29" t="s">
         <v>24</v>
       </c>
@@ -5286,7 +6460,7 @@
       </c>
       <c r="P51" s="21"/>
     </row>
-    <row r="52" spans="13:16">
+    <row r="52" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M52" s="20"/>
       <c r="N52" s="2" t="s">
         <v>22</v>
@@ -5296,7 +6470,7 @@
       </c>
       <c r="P52" s="21"/>
     </row>
-    <row r="53" spans="13:16">
+    <row r="53" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M53" s="20"/>
       <c r="N53" s="2" t="s">
         <v>21</v>
@@ -5306,7 +6480,7 @@
       </c>
       <c r="P53" s="21"/>
     </row>
-    <row r="54" spans="13:16">
+    <row r="54" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M54" s="20"/>
       <c r="N54" s="2" t="s">
         <v>20</v>
@@ -5316,7 +6490,7 @@
       </c>
       <c r="P54" s="21"/>
     </row>
-    <row r="55" spans="13:16">
+    <row r="55" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M55" s="20"/>
       <c r="N55" s="2" t="s">
         <v>19</v>
@@ -5326,7 +6500,7 @@
       </c>
       <c r="P55" s="21"/>
     </row>
-    <row r="56" spans="13:16">
+    <row r="56" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M56" s="20"/>
       <c r="N56" s="2" t="s">
         <v>18</v>
@@ -5336,7 +6510,7 @@
       </c>
       <c r="P56" s="21"/>
     </row>
-    <row r="57" spans="13:16">
+    <row r="57" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M57" s="20"/>
       <c r="N57" s="2" t="s">
         <v>17</v>
@@ -5346,7 +6520,7 @@
       </c>
       <c r="P57" s="21"/>
     </row>
-    <row r="58" spans="13:16">
+    <row r="58" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M58" s="20"/>
       <c r="N58" s="2" t="s">
         <v>16</v>
@@ -5356,7 +6530,7 @@
       </c>
       <c r="P58" s="21"/>
     </row>
-    <row r="59" spans="13:16">
+    <row r="59" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M59" s="20"/>
       <c r="N59" s="23" t="s">
         <v>15</v>
@@ -5366,7 +6540,7 @@
       </c>
       <c r="P59" s="21"/>
     </row>
-    <row r="60" spans="13:16">
+    <row r="60" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M60" s="20"/>
       <c r="N60" s="18"/>
       <c r="O60" s="27"/>
@@ -5375,7 +6549,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="61" spans="13:16">
+    <row r="61" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M61" s="26" t="s">
         <v>14</v>
       </c>
@@ -5387,7 +6561,7 @@
       </c>
       <c r="P61" s="21"/>
     </row>
-    <row r="62" spans="13:16">
+    <row r="62" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M62" s="20"/>
       <c r="N62" s="2" t="s">
         <v>12</v>
@@ -5397,7 +6571,7 @@
       </c>
       <c r="P62" s="21"/>
     </row>
-    <row r="63" spans="13:16">
+    <row r="63" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M63" s="20"/>
       <c r="N63" s="2" t="s">
         <v>11</v>
@@ -5407,7 +6581,7 @@
       </c>
       <c r="P63" s="21"/>
     </row>
-    <row r="64" spans="13:16">
+    <row r="64" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M64" s="20"/>
       <c r="N64" s="23" t="s">
         <v>10</v>
@@ -5417,7 +6591,7 @@
       </c>
       <c r="P64" s="21"/>
     </row>
-    <row r="65" spans="13:16">
+    <row r="65" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M65" s="20"/>
       <c r="N65" s="18"/>
       <c r="O65" s="19"/>
@@ -5425,7 +6599,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="66" spans="13:16" ht="15.75" thickBot="1">
+    <row r="66" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M66" s="13" t="s">
         <v>9</v>
       </c>
@@ -5435,7 +6609,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="67" spans="13:16">
+    <row r="67" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M67" s="16" t="s">
         <v>8</v>
       </c>
@@ -5446,7 +6620,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="68" spans="13:16" ht="15.75" thickBot="1">
+    <row r="68" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M68" s="13" t="s">
         <v>7</v>
       </c>
@@ -5456,7 +6630,7 @@
         <v>0.33989999999999998</v>
       </c>
     </row>
-    <row r="69" spans="13:16">
+    <row r="69" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M69" s="10" t="s">
         <v>6</v>
       </c>
